--- a/financials/timesheet.xlsx
+++ b/financials/timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1952DE65-10A2-46BD-A237-C275F72CE8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64AE924-52C0-476D-9573-6BB105027223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,7 +270,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -323,9 +323,6 @@
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -478,13 +475,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -506,6 +496,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -607,7 +604,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TimeSheet" displayName="TimeSheet" ref="B5:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TimeSheet" displayName="TimeSheet" ref="B5:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
   <autoFilter ref="B5:E29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="3" dataCellStyle="Date"/>
@@ -896,7 +893,7 @@
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -927,7 +924,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8">
         <f>SUBTOTAL(109,TimeSheet[HOURS WORKED])</f>
-        <v>50.416666666666664</v>
+        <v>51.416666666666664</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1017,7 @@
       <c r="D10" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>1.0000000000000018</v>
       </c>
@@ -1035,7 +1032,7 @@
       <c r="D11" s="13">
         <v>0.75</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>5.0000000000000009</v>
       </c>
@@ -1050,7 +1047,7 @@
       <c r="D12" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>2.0000000000000009</v>
       </c>
@@ -1065,7 +1062,7 @@
       <c r="D13" s="13">
         <v>0.75</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>0.99999999999999911</v>
       </c>
@@ -1080,7 +1077,7 @@
       <c r="D14" s="13">
         <v>0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>3</v>
       </c>
@@ -1095,7 +1092,7 @@
       <c r="D15" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>2.0000000000000009</v>
       </c>
@@ -1110,7 +1107,7 @@
       <c r="D16" s="13">
         <v>0.5</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>1.0000000000000004</v>
       </c>
@@ -1125,7 +1122,7 @@
       <c r="D17" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>3.9999999999999991</v>
       </c>
@@ -1140,7 +1137,7 @@
       <c r="D18" s="13">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>0.99999999999999911</v>
       </c>
@@ -1155,7 +1152,7 @@
       <c r="D19" s="13">
         <v>0.75</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>3</v>
       </c>
@@ -1170,7 +1167,7 @@
       <c r="D20" s="13">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>0.75</v>
       </c>
@@ -1180,14 +1177,14 @@
         <v>45573</v>
       </c>
       <c r="C21" s="13">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D21" s="13">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E21" s="18">
-        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
-        <v>1.9999999999999982</v>
+        <v>0.875</v>
+      </c>
+      <c r="E21" s="14">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1197,7 @@
       <c r="D22" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>1.0000000000000018</v>
       </c>
@@ -1215,7 +1212,7 @@
       <c r="D23" s="13">
         <v>0.20833333333333334</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>6.9999999999999991</v>
       </c>
@@ -1230,7 +1227,7 @@
       <c r="D24" s="13">
         <v>0.75</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>3</v>
       </c>
@@ -1240,14 +1237,14 @@
         <v>45579</v>
       </c>
       <c r="C25" s="13">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D25" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="18">
-        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
-        <v>0.99999999999999911</v>
+        <v>0.875</v>
+      </c>
+      <c r="E25" s="14">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1257,7 @@
       <c r="D26" s="13">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>3</v>
       </c>
@@ -1275,7 +1272,7 @@
       <c r="D27" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>1.0000000000000018</v>
       </c>
@@ -1290,7 +1287,7 @@
       <c r="D28" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>0.99999999999999911</v>
       </c>
@@ -1305,7 +1302,7 @@
       <c r="D29" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[TIME IN]:[TIME OUT]])=4,(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],IF(AND(LEN(TimeSheet[[#This Row],[TIME IN]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[TIME OUT]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[TIME OUT]]&lt;TimeSheet[[#This Row],[TIME IN]],1,0)+TimeSheet[[#This Row],[TIME OUT]])-TimeSheet[[#This Row],[TIME IN]],0))*24,0)</f>
         <v>0.66666666666666696</v>
       </c>
@@ -1636,15 +1633,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1662,6 +1650,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1686,14 +1683,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A940227B-607D-4021-A3EB-66804A83F3FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540613CA-7C6D-4E6A-AC6A-9D5453064DC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1705,6 +1694,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A940227B-607D-4021-A3EB-66804A83F3FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>